--- a/temporary_files/logit_highj_int.xlsx
+++ b/temporary_files/logit_highj_int.xlsx
@@ -528,7 +528,7 @@
         <v>-2.42</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -709,10 +709,10 @@
         <v>1.49</v>
       </c>
       <c r="C18" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D18" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
